--- a/data/trans_camb/P43C-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P43C-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,84</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,33</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,89; 16,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,55; 15,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,8; 10,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,89; 16,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,55; 15,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,8; 10,46</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,58%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,75; 42,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,64; 39,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,23; 26,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,75; 42,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,64; 39,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,23; 26,91</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,86</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,29</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,73; 14,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,09; 9,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,9; -0,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,73; 14,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,09; 9,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,9; -0,83</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,45%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,42; 23,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,95; 15,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,99; -1,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,42; 23,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,95; 15,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,99; -1,47</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,23</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 13,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,34; 14,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 12,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 13,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,34; 14,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 12,57</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,06%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 20,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,44; 21,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 19,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 20,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,44; 21,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 19,37</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,28</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,6; 13,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,52; 12,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,54; 5,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,6; 13,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,52; 12,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,54; 5,44</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,81%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,38; 25,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,78; 23,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,05; 10,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,38; 25,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,78; 23,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,05; 10,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P43C-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Estudios-trans_camb.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>6,63</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 10,46</t>
+          <t>2,3; 10,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 10,46</t>
+          <t>2,3; 10,81</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>16,32%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 26,91</t>
+          <t>5,41; 27,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 26,91</t>
+          <t>5,41; 27,83</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>-6,33</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>-6,33</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,9; -0,83</t>
+          <t>-24,24; 3,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,9; -0,83</t>
+          <t>-24,24; 3,41</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,45%</t>
+          <t>-10,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-10,45%</t>
+          <t>-10,53%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,99; -1,47</t>
+          <t>-40,42; 5,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-28,99; -1,47</t>
+          <t>-40,42; 5,71</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>6,64</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 12,57</t>
+          <t>1,43; 13,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 12,57</t>
+          <t>1,43; 13,03</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>9,66%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 19,37</t>
+          <t>1,95; 20,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 19,37</t>
+          <t>1,95; 20,25</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>2,1</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 5,44</t>
+          <t>-10,92; 7,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 5,44</t>
+          <t>-10,92; 7,75</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,91%</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 10,14</t>
+          <t>-19,92; 14,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 10,14</t>
+          <t>-19,92; 14,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P43C-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Estudios-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,89; 16,71</t>
+          <t>9,05; 16,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,55; 15,16</t>
+          <t>6,68; 15,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 10,81</t>
+          <t>2,68; 11,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,89; 16,71</t>
+          <t>9,05; 16,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,55; 15,16</t>
+          <t>6,68; 15,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 10,81</t>
+          <t>2,68; 11,03</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,75; 42,97</t>
+          <t>21,06; 43,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,64; 39,17</t>
+          <t>15,33; 39,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 27,83</t>
+          <t>6,3; 28,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,75; 42,97</t>
+          <t>21,06; 43,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,64; 39,17</t>
+          <t>15,33; 39,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 27,83</t>
+          <t>6,3; 28,55</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,73; 14,0</t>
+          <t>7,93; 14,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 9,26</t>
+          <t>2,9; 9,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,24; 3,41</t>
+          <t>-24,02; 2,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,73; 14,0</t>
+          <t>7,93; 14,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 9,26</t>
+          <t>2,9; 9,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,24; 3,41</t>
+          <t>-24,02; 2,4</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,42; 23,99</t>
+          <t>12,74; 25,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 15,71</t>
+          <t>4,63; 16,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,42; 5,71</t>
+          <t>-39,78; 4,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,42; 23,99</t>
+          <t>12,74; 25,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 15,71</t>
+          <t>4,63; 16,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-40,42; 5,71</t>
+          <t>-39,78; 4,06</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 13,48</t>
+          <t>1,64; 13,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,34; 14,37</t>
+          <t>3,09; 14,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 13,03</t>
+          <t>1,08; 12,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 13,48</t>
+          <t>1,64; 13,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,34; 14,37</t>
+          <t>3,09; 14,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 13,03</t>
+          <t>1,08; 12,32</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,96; 20,6</t>
+          <t>2,26; 21,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 21,89</t>
+          <t>4,19; 22,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,95; 20,25</t>
+          <t>1,54; 18,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,96; 20,6</t>
+          <t>2,26; 21,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 21,89</t>
+          <t>4,19; 22,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,95; 20,25</t>
+          <t>1,54; 18,72</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,6; 13,6</t>
+          <t>8,95; 13,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,52; 12,51</t>
+          <t>7,76; 12,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 7,75</t>
+          <t>-10,44; 7,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,6; 13,6</t>
+          <t>8,95; 13,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,52; 12,51</t>
+          <t>7,76; 12,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 7,75</t>
+          <t>-10,44; 7,76</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,38; 25,8</t>
+          <t>16,36; 26,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,78; 23,77</t>
+          <t>14,21; 24,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 14,51</t>
+          <t>-19,22; 14,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,38; 25,8</t>
+          <t>16,36; 26,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,78; 23,77</t>
+          <t>14,21; 24,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 14,51</t>
+          <t>-19,22; 14,6</t>
         </is>
       </c>
     </row>
